--- a/01Python/Session4/parse header file and give its functions prototype  unique ID /DIO.xlsx
+++ b/01Python/Session4/parse header file and give its functions prototype  unique ID /DIO.xlsx
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IDX001</t>
+          <t>IDX000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -449,7 +449,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IDX002</t>
+          <t>IDX001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -462,7 +462,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IDX003</t>
+          <t>IDX002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -475,7 +475,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IDX004</t>
+          <t>IDX003</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IDX005</t>
+          <t>IDX004</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IDX006</t>
+          <t>IDX005</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -514,7 +514,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IDX007</t>
+          <t>IDX006</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -527,7 +527,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IDX008</t>
+          <t>IDX007</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IDX009</t>
+          <t>IDX008</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IDX010</t>
+          <t>IDX009</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -566,7 +566,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IDX011</t>
+          <t>IDX0010</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">

--- a/01Python/Session4/parse header file and give its functions prototype  unique ID /DIO.xlsx
+++ b/01Python/Session4/parse header file and give its functions prototype  unique ID /DIO.xlsx
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IDX000</t>
+          <t>IDX001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -449,7 +449,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IDX001</t>
+          <t>IDX002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -462,7 +462,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IDX002</t>
+          <t>IDX003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -475,7 +475,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IDX003</t>
+          <t>IDX004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IDX004</t>
+          <t>IDX005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IDX005</t>
+          <t>IDX006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -514,7 +514,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IDX006</t>
+          <t>IDX007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -527,7 +527,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IDX007</t>
+          <t>IDX008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IDX008</t>
+          <t>IDX009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IDX009</t>
+          <t>IDX0010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -566,7 +566,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IDX0010</t>
+          <t>IDX0011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
